--- a/久香数据库(仓储管理).xlsx
+++ b/久香数据库(仓储管理).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Undergo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProject\RiceProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="4152" tabRatio="808" xr2:uid="{C3167E3C-C7E9-4501-B309-CB940668A069}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="4155" tabRatio="808" firstSheet="5" activeTab="12" xr2:uid="{C3167E3C-C7E9-4501-B309-CB940668A069}"/>
   </bookViews>
   <sheets>
     <sheet name="久香数据库" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="角色表" sheetId="15" r:id="rId10"/>
     <sheet name="管理员表" sheetId="16" r:id="rId11"/>
     <sheet name="菜单表" sheetId="17" r:id="rId12"/>
-    <sheet name="角色与菜单关系表" sheetId="18" r:id="rId13"/>
+    <sheet name="角色(部门)菜单关系表" sheetId="18" r:id="rId13"/>
     <sheet name="登录记录表" sheetId="19" r:id="rId14"/>
     <sheet name="字典表" sheetId="20" r:id="rId15"/>
   </sheets>
@@ -1390,18 +1390,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248A2E11-2972-4C25-AE11-EB9359EBFA60}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1654,16 +1654,16 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.46484375" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.53125" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>168</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -1821,16 +1821,16 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.46484375" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>177</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -2022,19 +2022,19 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.19921875" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" customWidth="1"/>
+    <col min="7" max="7" width="16.1328125" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>211</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>203</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -2258,18 +2258,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF1216D-A603-49DF-8F76-CA41D63BB206}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>219</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>217</v>
       </c>
@@ -2367,17 +2367,17 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>232</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>229</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>225</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -2537,16 +2537,16 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.86328125" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>164</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2641,19 +2641,19 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="17.53125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="8.86328125" style="7"/>
     <col min="5" max="5" width="14.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="7"/>
-    <col min="7" max="7" width="13.88671875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="7"/>
+    <col min="6" max="6" width="8.86328125" style="7"/>
+    <col min="7" max="7" width="13.86328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.1328125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="8.86328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -2776,17 +2776,17 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="28.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" customWidth="1"/>
+    <col min="7" max="7" width="28.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.53125" customWidth="1"/>
+    <col min="9" max="9" width="27.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2972,17 +2972,17 @@
       <selection activeCell="A11" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.46484375" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -3186,17 +3186,17 @@
       <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="7.1328125" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -3355,17 +3355,17 @@
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="7.1328125" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -3513,15 +3513,15 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -3792,20 +3792,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2195EC2-11E0-4EA5-BACA-DADAAA7A8D12}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -3922,16 +3922,16 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.53125" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>153</v>
       </c>
